--- a/factores-de-emision_v1_anual.xlsx
+++ b/factores-de-emision_v1_anual.xlsx
@@ -719,7 +719,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.4087</t>
+          <t>0.3966</t>
         </is>
       </c>
     </row>

--- a/factores-de-emision_v1_anual.xlsx
+++ b/factores-de-emision_v1_anual.xlsx
@@ -719,7 +719,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.3966</t>
+          <t>0.3907</t>
         </is>
       </c>
     </row>
